--- a/data/sample_switch_configs/PowerEdge-FX2/Solution-Workbook.xlsx
+++ b/data/sample_switch_configs/PowerEdge-FX2/Solution-Workbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTK-Updates\April-10-2017\JetStream\data\sample_switch_configs\PowerEdge-FX2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetStream-10.0\April-25-2017\JetStream\data\sample_switch_configs\PowerEdge-FX2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" tabRatio="782" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" tabRatio="782" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1912,7 +1912,7 @@
     <numFmt numFmtId="174" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="93" x14ac:knownFonts="1">
+  <fonts count="93">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6313,6 +6313,54 @@
     <xf numFmtId="0" fontId="0" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6352,60 +6400,145 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="33" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6419,10 +6552,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="58" xfId="1629" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6440,126 +6569,6 @@
     <xf numFmtId="0" fontId="60" fillId="41" borderId="37" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6592,60 +6601,72 @@
     <xf numFmtId="0" fontId="49" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6667,29 +6688,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6699,6 +6699,15 @@
     <xf numFmtId="0" fontId="36" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6711,15 +6720,6 @@
     <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1630">
     <cellStyle name=" 1" xfId="1"/>
@@ -10328,58 +10328,44 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55297" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s55297"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>262065</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>175222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13104762" cy="7780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10394,48 +10380,31 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85516</xdr:rowOff>
+      <xdr:colOff>438422</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10579100" cy="8724238"/>
+          <a:ext cx="10828610" cy="8485188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13051,9 +13020,9 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13068,7 +13037,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -13085,7 +13054,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -13100,7 +13069,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>138</v>
@@ -13117,7 +13086,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -13132,7 +13101,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -13147,24 +13116,24 @@
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="206"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="222"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>2</v>
@@ -13181,7 +13150,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>3</v>
@@ -13198,7 +13167,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -13215,7 +13184,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" s="4"/>
       <c r="B11" s="10" t="s">
         <v>5</v>
@@ -13232,7 +13201,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -13247,24 +13216,24 @@
       <c r="L12" s="15"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="209"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="225"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -13281,7 +13250,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
         <v>8</v>
@@ -13298,7 +13267,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -13315,7 +13284,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
         <v>10</v>
@@ -13332,7 +13301,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
@@ -13347,24 +13316,24 @@
       <c r="L18" s="18"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="212"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="228"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
@@ -13381,7 +13350,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="10" t="s">
         <v>13</v>
@@ -13398,7 +13367,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="19" t="s">
         <v>14</v>
@@ -13415,7 +13384,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13430,24 +13399,24 @@
       <c r="L23" s="23"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="215"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="231"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="10" t="s">
         <v>16</v>
@@ -13464,7 +13433,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" s="4"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
@@ -13481,7 +13450,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="10" t="s">
         <v>18</v>
@@ -13498,7 +13467,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="24" t="s">
         <v>19</v>
@@ -13515,7 +13484,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -13532,7 +13501,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="24" t="s">
         <v>21</v>
@@ -13549,7 +13518,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="4"/>
       <c r="B31" s="10" t="s">
         <v>22</v>
@@ -13566,7 +13535,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="19" t="s">
         <v>23</v>
@@ -13583,7 +13552,7 @@
       <c r="L32" s="28"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -13598,115 +13567,115 @@
       <c r="L33" s="29"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="216" t="s">
+      <c r="B34" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="217"/>
-      <c r="L34" s="218"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="233"/>
+      <c r="K34" s="233"/>
+      <c r="L34" s="234"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="219" t="s">
+      <c r="C35" s="214"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="220"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="219" t="s">
+      <c r="F35" s="214"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="220"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="219" t="s">
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="221"/>
+      <c r="L35" s="215"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="222">
+      <c r="B36" s="216">
         <v>1</v>
       </c>
-      <c r="C36" s="223"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="223"/>
-      <c r="L36" s="225"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="217"/>
+      <c r="L36" s="219"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="229">
+      <c r="B37" s="210">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
-      <c r="G37" s="230"/>
-      <c r="H37" s="230"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="230"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="231"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="212"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="229">
+      <c r="B38" s="210">
         <v>1.2</v>
       </c>
-      <c r="C38" s="230"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="230"/>
-      <c r="H38" s="230"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="230"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="231"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="226">
+      <c r="B39" s="207">
         <v>1.3</v>
       </c>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="227"/>
-      <c r="K39" s="227"/>
-      <c r="L39" s="228"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="209"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -13723,6 +13692,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -13735,19 +13717,6 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13764,10 +13733,10 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.1796875" style="137" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.54296875" style="137" bestFit="1" customWidth="1"/>
@@ -13789,30 +13758,30 @@
     <col min="25" max="25" width="9.26953125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25">
       <c r="A1" s="39"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="309" t="s">
+      <c r="E2" s="300" t="s">
         <v>303</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="300"/>
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
@@ -13821,48 +13790,48 @@
       <c r="X2" s="125"/>
       <c r="Y2" s="125"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="289" t="s">
+    <row r="3" spans="1:25">
+      <c r="A3" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="290"/>
+      <c r="B3" s="293"/>
       <c r="C3" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311" t="s">
+      <c r="F3" s="303"/>
+      <c r="G3" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311" t="s">
+      <c r="H3" s="303"/>
+      <c r="I3" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="311"/>
+      <c r="J3" s="303"/>
       <c r="K3" s="151"/>
-      <c r="L3" s="314" t="s">
+      <c r="L3" s="307" t="s">
         <v>293</v>
       </c>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="311" t="s">
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="303" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="312"/>
+      <c r="Q3" s="304"/>
       <c r="S3" s="336" t="s">
         <v>54</v>
       </c>
       <c r="T3" s="337"/>
-      <c r="U3" s="324"/>
-      <c r="V3" s="325"/>
-      <c r="W3" s="325"/>
-      <c r="X3" s="326"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="333"/>
+      <c r="X3" s="334"/>
       <c r="Y3" s="146"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -13915,13 +13884,13 @@
         <v>53</v>
       </c>
       <c r="T4" s="339"/>
-      <c r="U4" s="324"/>
-      <c r="V4" s="325"/>
-      <c r="W4" s="325"/>
-      <c r="X4" s="326"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="333"/>
+      <c r="W4" s="333"/>
+      <c r="X4" s="334"/>
       <c r="Y4" s="146"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -13977,13 +13946,13 @@
         <v>42</v>
       </c>
       <c r="T5" s="337"/>
-      <c r="U5" s="324"/>
-      <c r="V5" s="325"/>
-      <c r="W5" s="325"/>
-      <c r="X5" s="326"/>
+      <c r="U5" s="332"/>
+      <c r="V5" s="333"/>
+      <c r="W5" s="333"/>
+      <c r="X5" s="334"/>
       <c r="Y5" s="146"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -14008,7 +13977,7 @@
         <v>489</v>
       </c>
       <c r="I6" s="38">
-        <f>Provisioner</f>
+        <f t="shared" ref="I6:I14" si="0">Provisioner</f>
         <v>120</v>
       </c>
       <c r="J6" s="61" t="str">
@@ -14040,16 +14009,16 @@
         <v>71</v>
       </c>
       <c r="T6" s="339"/>
-      <c r="U6" s="324" t="str">
+      <c r="U6" s="332" t="str">
         <f>S4048_2_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="V6" s="325"/>
-      <c r="W6" s="325"/>
-      <c r="X6" s="326"/>
+      <c r="V6" s="333"/>
+      <c r="W6" s="333"/>
+      <c r="X6" s="334"/>
       <c r="Y6" s="146"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -14074,7 +14043,7 @@
         <v>489</v>
       </c>
       <c r="I7" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J7" s="61" t="str">
@@ -14103,7 +14072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -14128,7 +14097,7 @@
         <v>489</v>
       </c>
       <c r="I8" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J8" s="61" t="str">
@@ -14156,19 +14125,19 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="321" t="s">
+      <c r="S8" s="329" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="322"/>
-      <c r="U8" s="323"/>
-      <c r="V8" s="333" t="s">
+      <c r="T8" s="330"/>
+      <c r="U8" s="331"/>
+      <c r="V8" s="340" t="s">
         <v>284</v>
       </c>
-      <c r="W8" s="334"/>
-      <c r="X8" s="335"/>
+      <c r="W8" s="341"/>
+      <c r="X8" s="342"/>
       <c r="Y8" s="139"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -14193,11 +14162,11 @@
         <v>489</v>
       </c>
       <c r="I9" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J9" s="128" t="str">
-        <f t="shared" ref="J9:J14" si="0">CONCATENATE(TenTunnel,",",PrivAPI,",",TenantBeg,"-",TenantEnd)</f>
+        <f t="shared" ref="J9:J14" si="1">CONCATENATE(TenTunnel,",",PrivAPI,",",TenantBeg,"-",TenantEnd)</f>
         <v>130,140,201-250</v>
       </c>
       <c r="K9" s="130" t="s">
@@ -14221,17 +14190,17 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="340" t="s">
+      <c r="S9" s="343" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="341"/>
-      <c r="U9" s="342"/>
-      <c r="V9" s="324"/>
-      <c r="W9" s="325"/>
-      <c r="X9" s="326"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="345"/>
+      <c r="V9" s="332"/>
+      <c r="W9" s="333"/>
+      <c r="X9" s="334"/>
       <c r="Y9" s="146"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -14256,11 +14225,11 @@
         <v>489</v>
       </c>
       <c r="I10" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J10" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K10" s="130" t="s">
@@ -14284,19 +14253,19 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="343" t="s">
+      <c r="S10" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="344"/>
-      <c r="U10" s="345"/>
-      <c r="V10" s="324">
+      <c r="T10" s="347"/>
+      <c r="U10" s="348"/>
+      <c r="V10" s="332">
         <v>20480</v>
       </c>
-      <c r="W10" s="325"/>
-      <c r="X10" s="326"/>
+      <c r="W10" s="333"/>
+      <c r="X10" s="334"/>
       <c r="Y10" s="146"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -14321,11 +14290,11 @@
         <v>489</v>
       </c>
       <c r="I11" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J11" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K11" s="130" t="s">
@@ -14350,7 +14319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -14375,11 +14344,11 @@
         <v>489</v>
       </c>
       <c r="I12" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J12" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K12" s="130" t="s">
@@ -14403,17 +14372,17 @@
       <c r="Q12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S12" s="321" t="s">
+      <c r="S12" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="322"/>
-      <c r="U12" s="323"/>
-      <c r="V12" s="324"/>
-      <c r="W12" s="325"/>
-      <c r="X12" s="326"/>
+      <c r="T12" s="330"/>
+      <c r="U12" s="331"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="333"/>
+      <c r="X12" s="334"/>
       <c r="Y12" s="146"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -14437,11 +14406,11 @@
         <v>489</v>
       </c>
       <c r="I13" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J13" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K13" s="130" t="s">
@@ -14465,24 +14434,24 @@
       <c r="Q13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="327" t="s">
+      <c r="S13" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="328"/>
-      <c r="U13" s="329"/>
-      <c r="V13" s="333">
+      <c r="T13" s="327"/>
+      <c r="U13" s="328"/>
+      <c r="V13" s="340">
         <f>VLTDOMAIN</f>
         <v>1</v>
       </c>
-      <c r="W13" s="334"/>
-      <c r="X13" s="335"/>
+      <c r="W13" s="341"/>
+      <c r="X13" s="342"/>
       <c r="Y13" s="139"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="313" t="s">
+    <row r="14" spans="1:25">
+      <c r="A14" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="312"/>
+      <c r="B14" s="304"/>
       <c r="E14" s="36" t="s">
         <v>235</v>
       </c>
@@ -14496,11 +14465,11 @@
         <v>489</v>
       </c>
       <c r="I14" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J14" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K14" s="130" t="s">
@@ -14524,19 +14493,19 @@
       <c r="Q14" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="327" t="s">
+      <c r="S14" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="328"/>
-      <c r="U14" s="329"/>
-      <c r="V14" s="324">
+      <c r="T14" s="327"/>
+      <c r="U14" s="328"/>
+      <c r="V14" s="332">
         <v>2</v>
       </c>
-      <c r="W14" s="325"/>
-      <c r="X14" s="326"/>
+      <c r="W14" s="333"/>
+      <c r="X14" s="334"/>
       <c r="Y14" s="146"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25">
       <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
@@ -14562,26 +14531,23 @@
       <c r="O15" s="130"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="61"/>
-      <c r="S15" s="321" t="s">
+      <c r="S15" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="322"/>
-      <c r="U15" s="323"/>
-      <c r="V15" s="324">
+      <c r="T15" s="330"/>
+      <c r="U15" s="331"/>
+      <c r="V15" s="332">
         <v>1</v>
       </c>
-      <c r="W15" s="325"/>
-      <c r="X15" s="326"/>
+      <c r="W15" s="333"/>
+      <c r="X15" s="334"/>
       <c r="Y15" s="146"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25">
       <c r="A16" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="39" t="str">
-        <f>S4048_2_OOB_IP</f>
-        <v>100.68.180.5</v>
-      </c>
+      <c r="B16" s="39"/>
       <c r="E16" s="36" t="s">
         <v>237</v>
       </c>
@@ -14624,7 +14590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25">
       <c r="A17" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -14673,17 +14639,17 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="317" t="s">
+      <c r="S17" s="310" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="318"/>
-      <c r="U17" s="318"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="318"/>
-      <c r="X17" s="319"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
+      <c r="W17" s="311"/>
+      <c r="X17" s="312"/>
       <c r="Y17" s="140"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25">
       <c r="A18" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -14732,15 +14698,15 @@
       <c r="Q18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="296"/>
-      <c r="T18" s="297"/>
-      <c r="U18" s="297"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="297"/>
-      <c r="X18" s="298"/>
+      <c r="S18" s="317"/>
+      <c r="T18" s="318"/>
+      <c r="U18" s="318"/>
+      <c r="V18" s="318"/>
+      <c r="W18" s="318"/>
+      <c r="X18" s="319"/>
       <c r="Y18" s="141"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25">
       <c r="A19" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -14767,15 +14733,15 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="299"/>
-      <c r="T19" s="300"/>
-      <c r="U19" s="300"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="300"/>
-      <c r="X19" s="301"/>
+      <c r="S19" s="320"/>
+      <c r="T19" s="321"/>
+      <c r="U19" s="321"/>
+      <c r="V19" s="321"/>
+      <c r="W19" s="321"/>
+      <c r="X19" s="322"/>
       <c r="Y19" s="141"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25">
       <c r="A20" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -14802,15 +14768,15 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="296"/>
-      <c r="T20" s="297"/>
-      <c r="U20" s="297"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="297"/>
-      <c r="X20" s="298"/>
+      <c r="S20" s="317"/>
+      <c r="T20" s="318"/>
+      <c r="U20" s="318"/>
+      <c r="V20" s="318"/>
+      <c r="W20" s="318"/>
+      <c r="X20" s="319"/>
       <c r="Y20" s="141"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25">
       <c r="A21" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -14837,15 +14803,15 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="299"/>
-      <c r="T21" s="300"/>
-      <c r="U21" s="300"/>
-      <c r="V21" s="300"/>
-      <c r="W21" s="300"/>
-      <c r="X21" s="301"/>
+      <c r="S21" s="320"/>
+      <c r="T21" s="321"/>
+      <c r="U21" s="321"/>
+      <c r="V21" s="321"/>
+      <c r="W21" s="321"/>
+      <c r="X21" s="322"/>
       <c r="Y21" s="141"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25">
       <c r="A22" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -14873,7 +14839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25">
       <c r="A23" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -14901,7 +14867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="E24" s="36" t="s">
@@ -14926,7 +14892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="E25" s="36" t="s">
         <v>246</v>
       </c>
@@ -14956,7 +14922,7 @@
       <c r="X25" s="124"/>
       <c r="Y25" s="124"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25">
       <c r="E26" s="36" t="s">
         <v>247</v>
       </c>
@@ -14986,7 +14952,7 @@
       <c r="X26" s="124"/>
       <c r="Y26" s="124"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25">
       <c r="E27" s="36" t="s">
         <v>248</v>
       </c>
@@ -15016,7 +14982,7 @@
       <c r="X27" s="124"/>
       <c r="Y27" s="124"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25">
       <c r="E28" s="36" t="s">
         <v>249</v>
       </c>
@@ -15046,7 +15012,7 @@
       <c r="X28" s="124"/>
       <c r="Y28" s="124"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25">
       <c r="C29" s="124"/>
       <c r="E29" s="36" t="s">
         <v>250</v>
@@ -15096,7 +15062,7 @@
       <c r="X29" s="124"/>
       <c r="Y29" s="124"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25">
       <c r="E30" s="36" t="s">
         <v>251</v>
       </c>
@@ -15145,7 +15111,7 @@
       <c r="X30" s="124"/>
       <c r="Y30" s="124"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25">
       <c r="E31" s="36" t="s">
         <v>252</v>
       </c>
@@ -15187,10 +15153,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="308"/>
-      <c r="B32" s="308"/>
-      <c r="C32" s="308"/>
+    <row r="32" spans="1:25">
+      <c r="A32" s="299"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
       <c r="E32" s="36" t="s">
         <v>253</v>
       </c>
@@ -15232,10 +15198,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="308"/>
-      <c r="B33" s="308"/>
-      <c r="C33" s="308"/>
+    <row r="33" spans="1:17">
+      <c r="A33" s="299"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
       <c r="E33" s="36" t="s">
         <v>254</v>
       </c>
@@ -15252,7 +15218,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="127">
-        <f t="shared" ref="J33:J38" si="1">Storage</f>
+        <f t="shared" ref="J33:J38" si="2">Storage</f>
         <v>170</v>
       </c>
       <c r="K33" s="61" t="s">
@@ -15277,10 +15243,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="308"/>
-      <c r="B34" s="308"/>
-      <c r="C34" s="308"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="299"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
       <c r="E34" s="36" t="s">
         <v>255</v>
       </c>
@@ -15297,7 +15263,7 @@
         <v>38</v>
       </c>
       <c r="J34" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K34" s="61" t="s">
@@ -15322,7 +15288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17">
       <c r="E35" s="36" t="s">
         <v>256</v>
       </c>
@@ -15339,7 +15305,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K35" s="61" t="s">
@@ -15364,11 +15330,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="320" t="s">
+    <row r="36" spans="1:17">
+      <c r="A36" s="335" t="s">
         <v>394</v>
       </c>
-      <c r="B36" s="320"/>
+      <c r="B36" s="335"/>
       <c r="E36" s="36" t="s">
         <v>257</v>
       </c>
@@ -15385,7 +15351,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K36" s="61" t="s">
@@ -15410,9 +15376,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="320"/>
-      <c r="B37" s="320"/>
+    <row r="37" spans="1:17">
+      <c r="A37" s="335"/>
+      <c r="B37" s="335"/>
       <c r="E37" s="36" t="s">
         <v>258</v>
       </c>
@@ -15429,7 +15395,7 @@
         <v>38</v>
       </c>
       <c r="J37" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K37" s="61" t="s">
@@ -15454,11 +15420,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="289" t="s">
+    <row r="38" spans="1:17">
+      <c r="A38" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="290"/>
+      <c r="B38" s="293"/>
       <c r="E38" s="36" t="s">
         <v>259</v>
       </c>
@@ -15475,7 +15441,7 @@
         <v>38</v>
       </c>
       <c r="J38" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K38" s="61" t="s">
@@ -15500,7 +15466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17">
       <c r="A39" s="39" t="s">
         <v>49</v>
       </c>
@@ -15527,7 +15493,7 @@
       <c r="P39" s="48"/>
       <c r="Q39" s="61"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17">
       <c r="A40" s="39" t="s">
         <v>66</v>
       </c>
@@ -15573,7 +15539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="E41" s="36" t="s">
@@ -15617,7 +15583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="E42" s="36" t="s">
@@ -15661,7 +15627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="E43" s="36" t="s">
         <v>264</v>
       </c>
@@ -15682,7 +15648,7 @@
       <c r="P43" s="48"/>
       <c r="Q43" s="61"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="E44" s="36" t="s">
         <v>265</v>
       </c>
@@ -15703,7 +15669,7 @@
       <c r="P44" s="48"/>
       <c r="Q44" s="61"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="E45" s="36" t="s">
         <v>266</v>
       </c>
@@ -15744,7 +15710,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="E46" s="36" t="s">
         <v>267</v>
       </c>
@@ -15785,7 +15751,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="E47" s="36" t="s">
         <v>268</v>
       </c>
@@ -15808,7 +15774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="E48" s="36" t="s">
         <v>269</v>
       </c>
@@ -15831,7 +15797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25">
       <c r="C49" s="124"/>
       <c r="E49" s="36" t="s">
         <v>270</v>
@@ -15855,7 +15821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25">
       <c r="C50" s="124"/>
       <c r="E50" s="36" t="s">
         <v>271</v>
@@ -15886,7 +15852,7 @@
       <c r="X50" s="124"/>
       <c r="Y50" s="124"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25">
       <c r="A51" s="124"/>
       <c r="B51" s="124"/>
       <c r="C51" s="124"/>
@@ -15934,7 +15900,7 @@
       <c r="X51" s="124"/>
       <c r="Y51" s="124"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25">
       <c r="A52" s="124"/>
       <c r="B52" s="124"/>
       <c r="C52" s="124"/>
@@ -15982,7 +15948,7 @@
       <c r="X52" s="124"/>
       <c r="Y52" s="124"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25">
       <c r="A53" s="124"/>
       <c r="B53" s="124"/>
       <c r="C53" s="124"/>
@@ -16029,7 +15995,7 @@
       <c r="X53" s="124"/>
       <c r="Y53" s="124"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25">
       <c r="A54" s="124"/>
       <c r="B54" s="124"/>
       <c r="C54" s="124"/>
@@ -16076,7 +16042,7 @@
       <c r="X54" s="124"/>
       <c r="Y54" s="124"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25">
       <c r="A55" s="124"/>
       <c r="B55" s="124"/>
       <c r="C55" s="124"/>
@@ -16124,7 +16090,7 @@
       <c r="X55" s="124"/>
       <c r="Y55" s="124"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25">
       <c r="A56" s="124"/>
       <c r="B56" s="124"/>
       <c r="C56" s="124"/>
@@ -16155,7 +16121,7 @@
       <c r="X56" s="124"/>
       <c r="Y56" s="124"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25">
       <c r="A57" s="124"/>
       <c r="B57" s="124"/>
       <c r="E57" s="54" t="s">
@@ -16185,7 +16151,7 @@
       <c r="X57" s="124"/>
       <c r="Y57" s="124"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25">
       <c r="A58" s="124"/>
       <c r="B58" s="124"/>
       <c r="E58" s="54" t="s">
@@ -16204,7 +16170,7 @@
       <c r="P58" s="127"/>
       <c r="Q58" s="127"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25">
       <c r="E59" s="54" t="s">
         <v>366</v>
       </c>
@@ -16233,171 +16199,193 @@
       <c r="P59" s="128"/>
       <c r="Q59" s="128"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7">
       <c r="D66" s="148"/>
       <c r="E66" s="148"/>
       <c r="F66" s="148"/>
       <c r="G66" s="148"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7">
       <c r="C67" s="148"/>
       <c r="D67" s="148"/>
       <c r="E67" s="148"/>
       <c r="F67" s="148"/>
       <c r="G67" s="148"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7">
       <c r="C68" s="148"/>
       <c r="D68" s="148"/>
       <c r="E68" s="148"/>
       <c r="F68" s="148"/>
       <c r="G68" s="148"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7">
       <c r="C69" s="148"/>
       <c r="D69" s="148"/>
       <c r="E69" s="148"/>
       <c r="F69" s="148"/>
       <c r="G69" s="148"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7">
       <c r="C70" s="148"/>
       <c r="D70" s="148"/>
       <c r="E70" s="148"/>
       <c r="F70" s="148"/>
       <c r="G70" s="148"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7">
       <c r="C71" s="148"/>
       <c r="D71" s="148"/>
       <c r="E71" s="148"/>
       <c r="F71" s="148"/>
       <c r="G71" s="148"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7">
       <c r="C72" s="148"/>
       <c r="D72" s="148"/>
       <c r="E72" s="148"/>
       <c r="F72" s="148"/>
       <c r="G72" s="148"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7">
       <c r="C73" s="148"/>
       <c r="D73" s="148"/>
       <c r="E73" s="148"/>
       <c r="F73" s="148"/>
       <c r="G73" s="148"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7">
       <c r="C74" s="148"/>
       <c r="D74" s="148"/>
       <c r="E74" s="148"/>
       <c r="F74" s="148"/>
       <c r="G74" s="148"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7">
       <c r="C75" s="148"/>
       <c r="D75" s="148"/>
       <c r="E75" s="148"/>
       <c r="F75" s="148"/>
       <c r="G75" s="148"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:7">
       <c r="C76" s="148"/>
       <c r="D76" s="148"/>
       <c r="E76" s="148"/>
       <c r="F76" s="148"/>
       <c r="G76" s="148"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:7">
       <c r="C77" s="148"/>
       <c r="D77" s="148"/>
       <c r="E77" s="148"/>
       <c r="F77" s="148"/>
       <c r="G77" s="148"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:7">
       <c r="C78" s="148"/>
       <c r="D78" s="148"/>
       <c r="E78" s="148"/>
       <c r="F78" s="148"/>
       <c r="G78" s="148"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:7">
       <c r="C79" s="148"/>
       <c r="D79" s="148"/>
       <c r="E79" s="148"/>
       <c r="F79" s="148"/>
       <c r="G79" s="148"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:7">
       <c r="C80" s="148"/>
       <c r="D80" s="148"/>
       <c r="E80" s="148"/>
       <c r="F80" s="148"/>
       <c r="G80" s="148"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:7">
       <c r="C81" s="148"/>
       <c r="D81" s="148"/>
       <c r="E81" s="148"/>
       <c r="F81" s="148"/>
       <c r="G81" s="148"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:7">
       <c r="C82" s="148"/>
       <c r="D82" s="148"/>
       <c r="E82" s="148"/>
       <c r="F82" s="148"/>
       <c r="G82" s="148"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:7">
       <c r="C83" s="148"/>
       <c r="D83" s="148"/>
       <c r="E83" s="148"/>
       <c r="F83" s="148"/>
       <c r="G83" s="148"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:7">
       <c r="C84" s="148"/>
       <c r="D84" s="148"/>
       <c r="E84" s="148"/>
       <c r="F84" s="148"/>
       <c r="G84" s="148"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:7">
       <c r="C85" s="148"/>
       <c r="D85" s="148"/>
       <c r="E85" s="148"/>
       <c r="F85" s="148"/>
       <c r="G85" s="148"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:7">
       <c r="C86" s="148"/>
       <c r="D86" s="148"/>
       <c r="E86" s="148"/>
       <c r="F86" s="148"/>
       <c r="G86" s="148"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:7">
       <c r="C87" s="148"/>
       <c r="D87" s="148"/>
       <c r="E87" s="148"/>
       <c r="F87" s="148"/>
       <c r="G87" s="148"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:7">
       <c r="C88" s="148"/>
       <c r="D88" s="148"/>
       <c r="E88" s="148"/>
       <c r="F88" s="148"/>
       <c r="G88" s="148"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:7">
       <c r="C89" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="S20:X20"/>
     <mergeCell ref="S21:X21"/>
@@ -16414,28 +16402,6 @@
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S17:X17"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:F54">
     <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
@@ -16475,7 +16441,7 @@
       <selection activeCell="F31" sqref="F31:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="1.54296875" style="66" customWidth="1"/>
     <col min="2" max="4" width="15.7265625" style="66" customWidth="1"/>
@@ -16490,7 +16456,7 @@
     <col min="14" max="16384" width="9.1796875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="71" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="71" customFormat="1" ht="4.5" customHeight="1">
       <c r="A1" s="67"/>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -16506,17 +16472,17 @@
       <c r="M1" s="70"/>
       <c r="N1" s="67"/>
     </row>
-    <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="262"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="237"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
@@ -16524,129 +16490,129 @@
       <c r="M2" s="72"/>
       <c r="N2" s="72"/>
     </row>
-    <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="254" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="238" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="240"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
-      <c r="K3" s="266" t="s">
+      <c r="K3" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="267"/>
-      <c r="M3" s="268"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="243"/>
       <c r="N3" s="72"/>
     </row>
-    <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="251"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="237"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="249"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="271"/>
+      <c r="K4" s="250"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="252"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="238" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="254" t="s">
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="256"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="240"/>
       <c r="I5" s="72"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="274"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="255"/>
       <c r="N5" s="72"/>
     </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="72"/>
-      <c r="B6" s="278"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
       <c r="I6" s="72"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="274"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="255"/>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="72"/>
-      <c r="B7" s="281"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="274"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="255"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
-      <c r="B8" s="281"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="274"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="255"/>
       <c r="N8" s="72"/>
     </row>
-    <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="283"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="283"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="272"/>
-      <c r="L9" s="273"/>
-      <c r="M9" s="274"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="255"/>
       <c r="N9" s="72"/>
     </row>
-    <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1">
       <c r="A10" s="72"/>
       <c r="B10" s="62"/>
       <c r="C10" s="75"/>
@@ -16657,122 +16623,122 @@
       <c r="H10" s="76"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="272"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="274"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="255"/>
       <c r="N10" s="72"/>
     </row>
-    <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="72"/>
-      <c r="B11" s="260" t="s">
+      <c r="B11" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="262"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="237"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="273"/>
-      <c r="M11" s="274"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="255"/>
       <c r="N11" s="72"/>
     </row>
-    <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="254" t="s">
+      <c r="C12" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="254" t="s">
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="238" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="255"/>
-      <c r="H12" s="256"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="240"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="273"/>
-      <c r="M12" s="274"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="255"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="253"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="246"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="272"/>
-      <c r="L13" s="273"/>
-      <c r="M13" s="274"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="255"/>
       <c r="N13" s="72"/>
     </row>
-    <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="72"/>
       <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="253"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="246"/>
       <c r="I14" s="72"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="274"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="255"/>
       <c r="N14" s="72"/>
     </row>
-    <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="72"/>
       <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="253"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="246"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="273"/>
-      <c r="M15" s="274"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="255"/>
       <c r="N15" s="72"/>
     </row>
-    <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="72"/>
       <c r="B16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="253"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="275"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="277"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="258"/>
       <c r="N16" s="72"/>
     </row>
-    <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1">
       <c r="A17" s="72"/>
       <c r="B17" s="76"/>
       <c r="C17" s="75"/>
@@ -16788,17 +16754,17 @@
       <c r="M17" s="72"/>
       <c r="N17" s="72"/>
     </row>
-    <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="72"/>
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="266" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="264"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -16806,19 +16772,19 @@
       <c r="M18" s="72"/>
       <c r="N18" s="72"/>
     </row>
-    <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="254" t="s">
+      <c r="C19" s="238" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="255"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="254" t="s">
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="255"/>
-      <c r="H19" s="256"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="240"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -16826,17 +16792,17 @@
       <c r="M19" s="72"/>
       <c r="N19" s="72"/>
     </row>
-    <row r="20" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="72"/>
       <c r="B20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="235"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="253"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="246"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -16844,17 +16810,17 @@
       <c r="M20" s="72"/>
       <c r="N20" s="72"/>
     </row>
-    <row r="21" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="72"/>
       <c r="B21" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="235"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="253"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="245"/>
+      <c r="H21" s="246"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -16862,17 +16828,17 @@
       <c r="M21" s="72"/>
       <c r="N21" s="72"/>
     </row>
-    <row r="22" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="72"/>
       <c r="B22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="235"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="253"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="246"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
@@ -16880,17 +16846,17 @@
       <c r="M22" s="72"/>
       <c r="N22" s="72"/>
     </row>
-    <row r="23" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="72"/>
       <c r="B23" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="253"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="246"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -16898,19 +16864,19 @@
       <c r="M23" s="72"/>
       <c r="N23" s="72"/>
     </row>
-    <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="72"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="254" t="s">
+      <c r="C24" s="238" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="254" t="s">
+      <c r="D24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="238" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="255"/>
-      <c r="H24" s="256"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="240"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -16918,17 +16884,17 @@
       <c r="M24" s="72"/>
       <c r="N24" s="72"/>
     </row>
-    <row r="25" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="235"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="253"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="246"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="83" t="s">
@@ -16938,17 +16904,17 @@
       <c r="M25" s="72"/>
       <c r="N25" s="72"/>
     </row>
-    <row r="26" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="235"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="246"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="85" t="s">
@@ -16958,17 +16924,17 @@
       <c r="M26" s="72"/>
       <c r="N26" s="72"/>
     </row>
-    <row r="27" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="235"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="253"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="246"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="85" t="s">
@@ -16978,17 +16944,17 @@
       <c r="M27" s="72"/>
       <c r="N27" s="72"/>
     </row>
-    <row r="28" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="72"/>
       <c r="B28" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="235"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="253"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="246"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="87" t="s">
@@ -16998,14 +16964,14 @@
       <c r="M28" s="89"/>
       <c r="N28" s="72"/>
     </row>
-    <row r="29" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="72"/>
       <c r="B29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="242"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="258"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="271"/>
       <c r="F29" s="64"/>
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
@@ -17016,19 +16982,19 @@
       <c r="M29" s="89"/>
       <c r="N29" s="72"/>
     </row>
-    <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="254" t="s">
+      <c r="C30" s="238" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="255"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="254" t="s">
+      <c r="D30" s="239"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="238" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="255"/>
-      <c r="H30" s="256"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="240"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="91"/>
@@ -17036,17 +17002,17 @@
       <c r="M30" s="91"/>
       <c r="N30" s="72"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="92"/>
       <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="235"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="237"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="240"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="277"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
       <c r="K31" s="69"/>
@@ -17054,17 +17020,17 @@
       <c r="M31" s="69"/>
       <c r="N31" s="92"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="92"/>
       <c r="B32" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="235"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="240"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="276"/>
+      <c r="H32" s="277"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="69"/>
@@ -17072,17 +17038,17 @@
       <c r="M32" s="69"/>
       <c r="N32" s="92"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="92"/>
       <c r="B33" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="238"/>
-      <c r="G33" s="239"/>
-      <c r="H33" s="240"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="275"/>
+      <c r="G33" s="276"/>
+      <c r="H33" s="277"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
       <c r="K33" s="69"/>
@@ -17090,17 +17056,17 @@
       <c r="M33" s="69"/>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="92"/>
       <c r="B34" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="239"/>
-      <c r="H34" s="240"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="278"/>
+      <c r="G34" s="276"/>
+      <c r="H34" s="277"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92"/>
       <c r="K34" s="69"/>
@@ -17108,14 +17074,14 @@
       <c r="M34" s="69"/>
       <c r="N34" s="92"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="92"/>
       <c r="B35" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="244"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="280"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
@@ -17126,7 +17092,7 @@
       <c r="M35" s="69"/>
       <c r="N35" s="92"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="13" thickBot="1">
       <c r="A36" s="92"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -17142,14 +17108,14 @@
       <c r="M36" s="69"/>
       <c r="N36" s="92"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="92"/>
-      <c r="B37" s="245" t="s">
+      <c r="B37" s="281" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="246"/>
-      <c r="D37" s="246"/>
-      <c r="E37" s="247"/>
+      <c r="C37" s="282"/>
+      <c r="D37" s="282"/>
+      <c r="E37" s="283"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17160,13 +17126,13 @@
       <c r="M37" s="69"/>
       <c r="N37" s="92"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="92"/>
-      <c r="B38" s="248" t="s">
+      <c r="B38" s="284" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="249"/>
-      <c r="D38" s="250"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="286"/>
       <c r="E38" s="94"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -17178,13 +17144,13 @@
       <c r="M38" s="69"/>
       <c r="N38" s="92"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="13" thickBot="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="232" t="s">
+      <c r="B39" s="272" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="233"/>
-      <c r="D39" s="234"/>
+      <c r="C39" s="273"/>
+      <c r="D39" s="274"/>
       <c r="E39" s="95"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -17196,7 +17162,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="92"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="92"/>
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
@@ -17214,6 +17180,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -17230,54 +17244,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 E4">
     <cfRule type="expression" dxfId="167" priority="7">
@@ -17346,7 +17312,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.7265625" style="59" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" style="59" bestFit="1" customWidth="1"/>
@@ -17359,7 +17325,7 @@
     <col min="9" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -17369,19 +17335,19 @@
       <c r="G1" s="42"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="284" t="s">
+    <row r="2" spans="1:8" ht="18.5">
+      <c r="A2" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="289"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -17390,7 +17356,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="44"/>
       <c r="B4" s="40" t="s">
         <v>29</v>
@@ -17409,7 +17375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="44"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -17420,7 +17386,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="44"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -17431,7 +17397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="44"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -17442,7 +17408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="44"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -17451,7 +17417,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="44"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -17460,7 +17426,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="45"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -17469,337 +17435,337 @@
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5">
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5">
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5">
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5">
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5">
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5">
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5">
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5">
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5">
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5">
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5">
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5">
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5">
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5">
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5">
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5">
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5">
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5">
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5">
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5">
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5">
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5">
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5">
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5">
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5">
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5">
       <c r="B55" s="60"/>
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5">
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5">
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5">
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5">
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5">
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5">
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5">
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5">
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
@@ -17819,15 +17785,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="16384" width="9.1796875" style="52"/>
   </cols>
@@ -17835,34 +17803,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="55297" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>336550</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="55297" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -17874,10 +17814,10 @@
   <dimension ref="S3:W32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="19" max="19" width="35" customWidth="1"/>
     <col min="20" max="20" width="27.1796875" bestFit="1" customWidth="1"/>
@@ -17892,13 +17832,13 @@
     <col min="29" max="30" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S3" s="289" t="s">
+    <row r="3" spans="19:22" ht="30.75" customHeight="1">
+      <c r="S3" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="290"/>
-    </row>
-    <row r="4" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="293"/>
+    </row>
+    <row r="4" spans="19:22" ht="15.75" customHeight="1">
       <c r="S4" s="39" t="s">
         <v>530</v>
       </c>
@@ -17912,7 +17852,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="19:22" ht="15.75" customHeight="1">
       <c r="S5" s="182">
         <v>110</v>
       </c>
@@ -17926,7 +17866,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="19:22" ht="15.75" customHeight="1">
       <c r="S6" s="184">
         <v>120</v>
       </c>
@@ -17940,7 +17880,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="19:22" ht="15.75" customHeight="1">
       <c r="S7" s="200">
         <v>130</v>
       </c>
@@ -17954,7 +17894,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="19:22" ht="15.75" customHeight="1">
       <c r="S8" s="186">
         <v>140</v>
       </c>
@@ -17968,7 +17908,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="19:22" ht="15.75" customHeight="1">
       <c r="S9" s="187">
         <v>170</v>
       </c>
@@ -17982,7 +17922,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="19:22" ht="15.75" customHeight="1">
       <c r="S10" s="188">
         <v>180</v>
       </c>
@@ -17996,7 +17936,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="19:22" ht="15.75" customHeight="1">
       <c r="S11" s="189">
         <v>190</v>
       </c>
@@ -18010,7 +17950,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="19:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="19:22" ht="14.5">
       <c r="S12" s="190">
         <v>191</v>
       </c>
@@ -18024,7 +17964,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="19:22" ht="15.75" customHeight="1">
       <c r="S13" s="183" t="s">
         <v>521</v>
       </c>
@@ -18038,7 +17978,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="20" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="19:23" ht="15.75" customHeight="1">
       <c r="S20" s="147" t="s">
         <v>304</v>
       </c>
@@ -18055,7 +17995,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="19:23" ht="15.75" customHeight="1">
       <c r="S21" s="147" t="s">
         <v>477</v>
       </c>
@@ -18072,7 +18012,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="19:23" ht="15.75" customHeight="1">
       <c r="S22" s="147" t="s">
         <v>478</v>
       </c>
@@ -18089,7 +18029,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="19:23" ht="15.75" customHeight="1">
       <c r="S23" s="147" t="s">
         <v>479</v>
       </c>
@@ -18106,7 +18046,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="19:23" ht="15.75" customHeight="1">
       <c r="S24" s="147" t="s">
         <v>480</v>
       </c>
@@ -18123,7 +18063,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="19:23" ht="15.75" customHeight="1">
       <c r="S25" s="147" t="s">
         <v>481</v>
       </c>
@@ -18140,7 +18080,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="19:23" ht="15.75" customHeight="1">
       <c r="S26" s="147" t="s">
         <v>486</v>
       </c>
@@ -18157,7 +18097,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="19:23" ht="15.75" customHeight="1">
       <c r="S27" s="147" t="s">
         <v>482</v>
       </c>
@@ -18174,7 +18114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="19:23" ht="15.75" customHeight="1">
       <c r="S28" s="147" t="s">
         <v>483</v>
       </c>
@@ -18191,7 +18131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="19:23" ht="15.75" customHeight="1">
       <c r="S29" s="147" t="s">
         <v>484</v>
       </c>
@@ -18208,7 +18148,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="19:23" ht="15.75" customHeight="1">
       <c r="S30" s="147" t="s">
         <v>485</v>
       </c>
@@ -18225,19 +18165,19 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="19:23" ht="15.75" customHeight="1">
       <c r="S31" s="147"/>
       <c r="T31" s="147"/>
       <c r="U31" s="147"/>
       <c r="V31" s="147"/>
       <c r="W31" s="147"/>
     </row>
-    <row r="32" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S32" s="287"/>
-      <c r="T32" s="288"/>
-      <c r="U32" s="288"/>
-      <c r="V32" s="288"/>
-      <c r="W32" s="288"/>
+    <row r="32" spans="19:23" ht="15.75" customHeight="1">
+      <c r="S32" s="290"/>
+      <c r="T32" s="291"/>
+      <c r="U32" s="291"/>
+      <c r="V32" s="291"/>
+      <c r="W32" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18265,7 +18205,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
@@ -18298,7 +18238,7 @@
     <col min="29" max="29" width="18.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18306,17 +18246,17 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.45">
-      <c r="A2" s="293" t="s">
+    <row r="2" spans="1:29" ht="19">
+      <c r="A2" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="295"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="298"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -18360,12 +18300,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" thickBot="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="292"/>
+      <c r="C4" s="295"/>
       <c r="D4" s="8"/>
       <c r="E4" s="131" t="s">
         <v>280</v>
@@ -18410,7 +18350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29">
       <c r="A5" s="4"/>
       <c r="B5" s="97" t="s">
         <v>203</v>
@@ -18457,7 +18397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>204</v>
@@ -18498,7 +18438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="4"/>
       <c r="B7" s="102" t="s">
         <v>205</v>
@@ -18534,7 +18474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="4"/>
       <c r="B8" s="98" t="s">
         <v>206</v>
@@ -18570,7 +18510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="4"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -18595,12 +18535,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" ht="15" thickBot="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="291" t="s">
+      <c r="B10" s="294" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="292"/>
+      <c r="C10" s="295"/>
       <c r="D10" s="8"/>
       <c r="E10" s="135" t="s">
         <v>554</v>
@@ -18616,7 +18556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29">
       <c r="A11" s="4"/>
       <c r="B11" s="136" t="s">
         <v>179</v>
@@ -18636,7 +18576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>180</v>
@@ -18656,7 +18596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>181</v>
@@ -18676,7 +18616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="15" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="98" t="s">
         <v>182</v>
@@ -18696,7 +18636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29">
       <c r="A15" s="4"/>
       <c r="B15" s="102" t="s">
         <v>183</v>
@@ -18710,7 +18650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29">
       <c r="A16" s="4"/>
       <c r="B16" s="98" t="s">
         <v>184</v>
@@ -18726,7 +18666,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29">
       <c r="A17" s="4"/>
       <c r="B17" s="102" t="s">
         <v>185</v>
@@ -18742,7 +18682,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29">
       <c r="A18" s="4"/>
       <c r="B18" s="98" t="s">
         <v>186</v>
@@ -18758,7 +18698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29">
       <c r="A19" s="4"/>
       <c r="B19" s="102" t="s">
         <v>188</v>
@@ -18774,7 +18714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29">
       <c r="A20" s="4"/>
       <c r="B20" s="98" t="s">
         <v>191</v>
@@ -18790,7 +18730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29">
       <c r="A21" s="4"/>
       <c r="B21" s="102" t="s">
         <v>192</v>
@@ -18803,7 +18743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>194</v>
@@ -18816,7 +18756,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29">
       <c r="A23" s="4"/>
       <c r="B23" s="102" t="s">
         <v>196</v>
@@ -18829,7 +18769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29">
       <c r="A24" s="4"/>
       <c r="B24" s="98" t="s">
         <v>195</v>
@@ -18842,7 +18782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29">
       <c r="A25" s="4"/>
       <c r="B25" s="102" t="s">
         <v>197</v>
@@ -18855,7 +18795,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29">
       <c r="A26" s="4"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -18866,12 +18806,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="15" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="291" t="s">
+      <c r="B27" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="292"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -18879,7 +18819,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29">
       <c r="A28" s="4"/>
       <c r="B28" s="97" t="s">
         <v>135</v>
@@ -18891,7 +18831,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>136</v>
@@ -18901,7 +18841,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29">
       <c r="A30" s="4"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -18909,17 +18849,17 @@
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" ht="15" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="294" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="292"/>
+      <c r="C31" s="295"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29">
       <c r="A32" s="4"/>
       <c r="B32" s="97" t="s">
         <v>100</v>
@@ -18929,7 +18869,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>102</v>
@@ -18939,7 +18879,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="102" t="s">
         <v>104</v>
@@ -18949,7 +18889,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>106</v>
@@ -18959,7 +18899,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
@@ -18967,17 +18907,17 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="291" t="s">
+      <c r="B37" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="292"/>
+      <c r="C37" s="295"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
         <v>111</v>
@@ -18987,7 +18927,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>113</v>
@@ -18997,7 +18937,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>115</v>
@@ -19007,7 +18947,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="98" t="s">
         <v>77</v>
@@ -19019,7 +18959,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -19027,17 +18967,17 @@
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="291" t="s">
+      <c r="B43" s="294" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="292"/>
+      <c r="C43" s="295"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="109" t="s">
         <v>121</v>
@@ -19047,7 +18987,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="112" t="s">
         <v>122</v>
@@ -19057,7 +18997,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="115" t="s">
         <v>207</v>
@@ -19067,7 +19007,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="100" t="s">
         <v>124</v>
@@ -19077,7 +19017,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="s">
         <v>125</v>
@@ -19089,7 +19029,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="109" t="s">
         <v>207</v>
@@ -19099,7 +19039,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>124</v>
@@ -19109,7 +19049,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="112" t="s">
         <v>125</v>
@@ -19121,7 +19061,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="110" t="s">
         <v>207</v>
@@ -19131,7 +19071,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="100" t="s">
         <v>124</v>
@@ -19141,7 +19081,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="15" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="116" t="s">
         <v>125</v>
@@ -19153,7 +19093,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="101" t="s">
         <v>208</v>
@@ -19163,7 +19103,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="103" t="s">
         <v>209</v>
@@ -19173,7 +19113,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="103" t="s">
         <v>210</v>
@@ -19183,7 +19123,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="103" t="s">
         <v>124</v>
@@ -19193,7 +19133,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="15" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="118" t="s">
         <v>125</v>
@@ -19205,7 +19145,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="110" t="s">
         <v>208</v>
@@ -19215,7 +19155,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="104" t="s">
         <v>209</v>
@@ -19225,7 +19165,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="104" t="s">
         <v>210</v>
@@ -19235,7 +19175,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="104" t="s">
         <v>124</v>
@@ -19245,7 +19185,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="15" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="119" t="s">
         <v>125</v>
@@ -19257,7 +19197,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6">
       <c r="A65" s="4"/>
       <c r="B65" s="101" t="s">
         <v>127</v>
@@ -19267,7 +19207,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="99" t="s">
         <v>128</v>
@@ -19277,7 +19217,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="99" t="s">
         <v>129</v>
@@ -19287,7 +19227,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="15" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="112" t="s">
         <v>130</v>
@@ -19299,7 +19239,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6">
       <c r="A69" s="4"/>
       <c r="B69" s="110" t="s">
         <v>127</v>
@@ -19309,7 +19249,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6">
       <c r="A70" s="4"/>
       <c r="B70" s="100" t="s">
         <v>128</v>
@@ -19319,7 +19259,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6">
       <c r="A71" s="4"/>
       <c r="B71" s="100" t="s">
         <v>129</v>
@@ -19329,7 +19269,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6">
       <c r="A72" s="4"/>
       <c r="B72" s="100" t="s">
         <v>130</v>
@@ -19341,7 +19281,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="8"/>
       <c r="C73" s="52"/>
@@ -19349,7 +19289,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6">
       <c r="A74" s="30"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -19357,11 +19297,11 @@
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6">
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6">
       <c r="E76" s="31"/>
       <c r="F76" s="32"/>
     </row>
@@ -19509,7 +19449,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="19.90625" customWidth="1"/>
@@ -19532,7 +19472,7 @@
     <col min="20" max="20" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="43.5">
       <c r="A1" s="154" t="s">
         <v>474</v>
       </c>
@@ -19602,7 +19542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="154"/>
       <c r="B2" s="154" t="s">
         <v>588</v>
@@ -19642,7 +19582,7 @@
       <c r="S2" s="154"/>
       <c r="T2" s="154"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="156" t="s">
         <v>451</v>
       </c>
@@ -19666,7 +19606,7 @@
       <c r="S3" s="163"/>
       <c r="T3" s="163"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="15" thickBot="1">
       <c r="A4" s="156" t="s">
         <v>453</v>
       </c>
@@ -19706,7 +19646,7 @@
       <c r="S4" s="163"/>
       <c r="T4" s="163"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="156" t="s">
         <v>452</v>
       </c>
@@ -19744,7 +19684,7 @@
       <c r="S5" s="163"/>
       <c r="T5" s="163"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="163" t="s">
         <v>435</v>
       </c>
@@ -19782,7 +19722,7 @@
       <c r="S6" s="163"/>
       <c r="T6" s="163"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="163" t="s">
         <v>436</v>
       </c>
@@ -19822,7 +19762,7 @@
       <c r="S7" s="163"/>
       <c r="T7" s="163"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="163" t="s">
         <v>446</v>
       </c>
@@ -19858,7 +19798,7 @@
       <c r="S8" s="163"/>
       <c r="T8" s="163"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="163" t="s">
         <v>439</v>
       </c>
@@ -19894,7 +19834,7 @@
       <c r="S9" s="163"/>
       <c r="T9" s="163"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15" thickBot="1">
       <c r="A10" s="163" t="s">
         <v>440</v>
       </c>
@@ -19932,7 +19872,7 @@
       <c r="S10" s="163"/>
       <c r="T10" s="163"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="163" t="s">
         <v>441</v>
       </c>
@@ -19970,7 +19910,7 @@
       <c r="S11" s="163"/>
       <c r="T11" s="163"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="163" t="s">
         <v>442</v>
       </c>
@@ -20006,7 +19946,7 @@
       <c r="S12" s="163"/>
       <c r="T12" s="163"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="163" t="s">
         <v>437</v>
       </c>
@@ -20042,7 +19982,7 @@
       <c r="S13" s="163"/>
       <c r="T13" s="163"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="163" t="s">
         <v>438</v>
       </c>
@@ -20078,7 +20018,7 @@
       <c r="S14" s="163"/>
       <c r="T14" s="163"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="163" t="s">
         <v>540</v>
       </c>
@@ -20114,7 +20054,7 @@
       <c r="S15" s="163"/>
       <c r="T15" s="163"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="163" t="s">
         <v>541</v>
       </c>
@@ -20150,7 +20090,7 @@
       <c r="S16" s="163"/>
       <c r="T16" s="163"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="163" t="s">
         <v>542</v>
       </c>
@@ -20186,7 +20126,7 @@
       <c r="S17" s="163"/>
       <c r="T17" s="163"/>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="166" t="s">
         <v>443</v>
       </c>
@@ -20224,7 +20164,7 @@
       <c r="S18" s="163"/>
       <c r="T18" s="163"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="166" t="s">
         <v>444</v>
       </c>
@@ -20262,7 +20202,7 @@
       <c r="S19" s="163"/>
       <c r="T19" s="163"/>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="166" t="s">
         <v>445</v>
       </c>
@@ -20300,14 +20240,14 @@
       <c r="S20" s="163"/>
       <c r="T20" s="163"/>
     </row>
-    <row r="21" spans="1:20" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="346" t="s">
+    <row r="21" spans="1:20" s="137" customFormat="1" ht="15" thickBot="1">
+      <c r="A21" s="204" t="s">
         <v>572</v>
       </c>
       <c r="B21" s="203"/>
       <c r="C21" s="203"/>
       <c r="D21" s="203"/>
-      <c r="E21" s="347" t="s">
+      <c r="E21" s="205" t="s">
         <v>458</v>
       </c>
       <c r="F21" s="163"/>
@@ -20326,7 +20266,7 @@
       <c r="S21" s="166"/>
       <c r="T21" s="166"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" s="163"/>
       <c r="B22" s="163"/>
       <c r="C22" s="163"/>
@@ -20336,7 +20276,7 @@
       <c r="G22" s="163"/>
       <c r="H22" s="163"/>
       <c r="I22" s="163"/>
-      <c r="J22" s="348"/>
+      <c r="J22" s="206"/>
       <c r="K22" s="163"/>
       <c r="L22" s="163"/>
       <c r="M22" s="163"/>
@@ -20348,7 +20288,7 @@
       <c r="S22" s="163"/>
       <c r="T22" s="163"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" s="171" t="s">
         <v>432</v>
       </c>
@@ -20368,7 +20308,7 @@
       <c r="G23" s="163"/>
       <c r="H23" s="163"/>
       <c r="I23" s="163"/>
-      <c r="J23" s="348"/>
+      <c r="J23" s="206"/>
       <c r="K23" s="163"/>
       <c r="L23" s="163"/>
       <c r="M23" s="163"/>
@@ -20380,7 +20320,7 @@
       <c r="S23" s="163"/>
       <c r="T23" s="163"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="176" t="s">
         <v>549</v>
       </c>
@@ -20398,7 +20338,7 @@
       <c r="G24" s="163"/>
       <c r="H24" s="163"/>
       <c r="I24" s="163"/>
-      <c r="J24" s="348"/>
+      <c r="J24" s="206"/>
       <c r="K24" s="163"/>
       <c r="L24" s="163"/>
       <c r="M24" s="163"/>
@@ -20410,7 +20350,7 @@
       <c r="S24" s="163"/>
       <c r="T24" s="163"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="C25" s="172" t="s">
@@ -20424,7 +20364,7 @@
       <c r="G25" s="163"/>
       <c r="H25" s="163"/>
       <c r="I25" s="163"/>
-      <c r="J25" s="348"/>
+      <c r="J25" s="206"/>
       <c r="K25" s="163"/>
       <c r="L25" s="163"/>
       <c r="M25" s="163"/>
@@ -20436,7 +20376,7 @@
       <c r="S25" s="163"/>
       <c r="T25" s="163"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="A26" s="173" t="s">
         <v>470</v>
       </c>
@@ -20454,7 +20394,7 @@
       <c r="G26" s="163"/>
       <c r="H26" s="163"/>
       <c r="I26" s="163"/>
-      <c r="J26" s="348"/>
+      <c r="J26" s="206"/>
       <c r="K26" s="163"/>
       <c r="L26" s="163"/>
       <c r="M26" s="163"/>
@@ -20466,7 +20406,7 @@
       <c r="S26" s="163"/>
       <c r="T26" s="163"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20">
       <c r="A27" s="173" t="s">
         <v>471</v>
       </c>
@@ -20484,7 +20424,7 @@
       <c r="G27" s="163"/>
       <c r="H27" s="163"/>
       <c r="I27" s="163"/>
-      <c r="J27" s="348"/>
+      <c r="J27" s="206"/>
       <c r="K27" s="163"/>
       <c r="L27" s="163"/>
       <c r="M27" s="163"/>
@@ -20496,7 +20436,7 @@
       <c r="S27" s="163"/>
       <c r="T27" s="163"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20">
       <c r="A28" s="173" t="s">
         <v>469</v>
       </c>
@@ -20514,7 +20454,7 @@
       <c r="G28" s="163"/>
       <c r="H28" s="163"/>
       <c r="I28" s="163"/>
-      <c r="J28" s="348"/>
+      <c r="J28" s="206"/>
       <c r="K28" s="163"/>
       <c r="L28" s="163"/>
       <c r="M28" s="163"/>
@@ -20526,7 +20466,7 @@
       <c r="S28" s="163"/>
       <c r="T28" s="163"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20">
       <c r="A29" s="163"/>
       <c r="B29" s="163"/>
       <c r="C29" s="163"/>
@@ -20536,7 +20476,7 @@
       <c r="G29" s="163"/>
       <c r="H29" s="163"/>
       <c r="I29" s="163"/>
-      <c r="J29" s="348"/>
+      <c r="J29" s="206"/>
       <c r="K29" s="163"/>
       <c r="L29" s="163"/>
       <c r="M29" s="163"/>
@@ -20548,7 +20488,7 @@
       <c r="S29" s="174"/>
       <c r="T29" s="174"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20">
       <c r="A30" s="179"/>
       <c r="B30" s="163"/>
       <c r="C30" s="163"/>
@@ -20558,7 +20498,7 @@
       <c r="G30" s="163"/>
       <c r="H30" s="163"/>
       <c r="I30" s="163"/>
-      <c r="J30" s="348"/>
+      <c r="J30" s="206"/>
       <c r="K30" s="163"/>
       <c r="L30" s="163"/>
       <c r="M30" s="163"/>
@@ -20570,7 +20510,7 @@
       <c r="S30" s="174"/>
       <c r="T30" s="174"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20">
       <c r="A31" s="163"/>
       <c r="B31" s="179"/>
       <c r="C31" s="163"/>
@@ -20580,7 +20520,7 @@
       <c r="G31" s="163"/>
       <c r="H31" s="163"/>
       <c r="I31" s="163"/>
-      <c r="J31" s="348"/>
+      <c r="J31" s="206"/>
       <c r="K31" s="163"/>
       <c r="L31" s="163"/>
       <c r="M31" s="163"/>
@@ -20592,7 +20532,7 @@
       <c r="S31" s="174"/>
       <c r="T31" s="174"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20">
       <c r="A32" s="163"/>
       <c r="B32" s="163"/>
       <c r="C32" s="163"/>
@@ -20602,7 +20542,7 @@
       <c r="G32" s="163"/>
       <c r="H32" s="163"/>
       <c r="I32" s="163"/>
-      <c r="J32" s="348"/>
+      <c r="J32" s="206"/>
       <c r="K32" s="163"/>
       <c r="L32" s="163"/>
       <c r="M32" s="163"/>
@@ -20614,7 +20554,7 @@
       <c r="S32" s="174"/>
       <c r="T32" s="174"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20">
       <c r="A33" s="163"/>
       <c r="B33" s="163"/>
       <c r="C33" s="163"/>
@@ -20624,7 +20564,7 @@
       <c r="G33" s="163"/>
       <c r="H33" s="163"/>
       <c r="I33" s="163"/>
-      <c r="J33" s="348"/>
+      <c r="J33" s="206"/>
       <c r="K33" s="163"/>
       <c r="L33" s="163"/>
       <c r="M33" s="163"/>
@@ -20636,7 +20576,7 @@
       <c r="S33" s="174"/>
       <c r="T33" s="174"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20">
       <c r="A34" s="163"/>
       <c r="B34" s="163"/>
       <c r="C34" s="163"/>
@@ -20646,7 +20586,7 @@
       <c r="G34" s="163"/>
       <c r="H34" s="163"/>
       <c r="I34" s="163"/>
-      <c r="J34" s="348"/>
+      <c r="J34" s="206"/>
       <c r="K34" s="163"/>
       <c r="L34" s="163"/>
       <c r="M34" s="163"/>
@@ -20658,7 +20598,7 @@
       <c r="S34" s="174"/>
       <c r="T34" s="174"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20">
       <c r="A35" s="163"/>
       <c r="B35" s="163"/>
       <c r="C35" s="163"/>
@@ -20668,7 +20608,7 @@
       <c r="G35" s="163"/>
       <c r="H35" s="163"/>
       <c r="I35" s="163"/>
-      <c r="J35" s="348"/>
+      <c r="J35" s="206"/>
       <c r="K35" s="163"/>
       <c r="L35" s="163"/>
       <c r="M35" s="163"/>
@@ -20680,7 +20620,7 @@
       <c r="S35" s="174"/>
       <c r="T35" s="174"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20">
       <c r="A36" s="163"/>
       <c r="B36" s="163"/>
       <c r="C36" s="163"/>
@@ -20690,7 +20630,7 @@
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
       <c r="I36" s="163"/>
-      <c r="J36" s="348"/>
+      <c r="J36" s="206"/>
       <c r="K36" s="163"/>
       <c r="L36" s="163"/>
       <c r="M36" s="163"/>
@@ -20702,7 +20642,7 @@
       <c r="S36" s="174"/>
       <c r="T36" s="174"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20">
       <c r="A37" s="163"/>
       <c r="B37" s="163"/>
       <c r="C37" s="163"/>
@@ -20712,7 +20652,7 @@
       <c r="G37" s="163"/>
       <c r="H37" s="163"/>
       <c r="I37" s="163"/>
-      <c r="J37" s="348"/>
+      <c r="J37" s="206"/>
       <c r="K37" s="163"/>
       <c r="L37" s="163"/>
       <c r="M37" s="163"/>
@@ -20724,7 +20664,7 @@
       <c r="S37" s="174"/>
       <c r="T37" s="174"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20">
       <c r="A38" s="163"/>
       <c r="B38" s="163"/>
       <c r="C38" s="163"/>
@@ -20734,7 +20674,7 @@
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
       <c r="I38" s="163"/>
-      <c r="J38" s="348"/>
+      <c r="J38" s="206"/>
       <c r="K38" s="163"/>
       <c r="L38" s="163"/>
       <c r="M38" s="163"/>
@@ -20746,7 +20686,7 @@
       <c r="S38" s="174"/>
       <c r="T38" s="174"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20">
       <c r="A39" s="163"/>
       <c r="B39" s="163"/>
       <c r="C39" s="163"/>
@@ -20756,7 +20696,7 @@
       <c r="G39" s="163"/>
       <c r="H39" s="163"/>
       <c r="I39" s="163"/>
-      <c r="J39" s="348"/>
+      <c r="J39" s="206"/>
       <c r="K39" s="163"/>
       <c r="L39" s="163"/>
       <c r="M39" s="163"/>
@@ -20768,7 +20708,7 @@
       <c r="S39" s="174"/>
       <c r="T39" s="174"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20">
       <c r="A40" s="163"/>
       <c r="B40" s="163"/>
       <c r="C40" s="163"/>
@@ -20778,7 +20718,7 @@
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="163"/>
-      <c r="J40" s="348"/>
+      <c r="J40" s="206"/>
       <c r="K40" s="163"/>
       <c r="L40" s="163"/>
       <c r="M40" s="163"/>
@@ -20790,7 +20730,7 @@
       <c r="S40" s="174"/>
       <c r="T40" s="174"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20">
       <c r="A41" s="163"/>
       <c r="B41" s="163"/>
       <c r="C41" s="163"/>
@@ -20800,7 +20740,7 @@
       <c r="G41" s="163"/>
       <c r="H41" s="163"/>
       <c r="I41" s="163"/>
-      <c r="J41" s="348"/>
+      <c r="J41" s="206"/>
       <c r="K41" s="163"/>
       <c r="L41" s="163"/>
       <c r="M41" s="163"/>
@@ -20812,7 +20752,7 @@
       <c r="S41" s="174"/>
       <c r="T41" s="174"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20">
       <c r="A42" s="163"/>
       <c r="B42" s="163"/>
       <c r="C42" s="163"/>
@@ -20822,12 +20762,12 @@
       <c r="G42" s="163"/>
       <c r="H42" s="163"/>
       <c r="I42" s="163"/>
-      <c r="J42" s="348"/>
+      <c r="J42" s="206"/>
       <c r="K42" s="163"/>
       <c r="L42" s="163"/>
       <c r="M42" s="163"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20">
       <c r="A43" s="163"/>
       <c r="B43" s="163"/>
       <c r="C43" s="163"/>
@@ -20837,12 +20777,12 @@
       <c r="G43" s="163"/>
       <c r="H43" s="163"/>
       <c r="I43" s="163"/>
-      <c r="J43" s="348"/>
+      <c r="J43" s="206"/>
       <c r="K43" s="163"/>
       <c r="L43" s="163"/>
       <c r="M43" s="163"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20">
       <c r="A44" s="163"/>
       <c r="B44" s="163"/>
       <c r="C44" s="163"/>
@@ -20852,12 +20792,12 @@
       <c r="G44" s="163"/>
       <c r="H44" s="163"/>
       <c r="I44" s="163"/>
-      <c r="J44" s="348"/>
+      <c r="J44" s="206"/>
       <c r="K44" s="163"/>
       <c r="L44" s="163"/>
       <c r="M44" s="163"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20">
       <c r="A45" s="163"/>
       <c r="B45" s="163"/>
       <c r="C45" s="163"/>
@@ -20867,12 +20807,12 @@
       <c r="G45" s="163"/>
       <c r="H45" s="163"/>
       <c r="I45" s="163"/>
-      <c r="J45" s="348"/>
+      <c r="J45" s="206"/>
       <c r="K45" s="163"/>
       <c r="L45" s="163"/>
       <c r="M45" s="163"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20">
       <c r="A46" s="163"/>
       <c r="B46" s="163"/>
       <c r="C46" s="163"/>
@@ -20882,12 +20822,12 @@
       <c r="G46" s="163"/>
       <c r="H46" s="163"/>
       <c r="I46" s="163"/>
-      <c r="J46" s="348"/>
+      <c r="J46" s="206"/>
       <c r="K46" s="163"/>
       <c r="L46" s="163"/>
       <c r="M46" s="163"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20">
       <c r="A47" s="163"/>
       <c r="B47" s="163"/>
       <c r="C47" s="163"/>
@@ -20897,12 +20837,12 @@
       <c r="G47" s="163"/>
       <c r="H47" s="163"/>
       <c r="I47" s="163"/>
-      <c r="J47" s="348"/>
+      <c r="J47" s="206"/>
       <c r="K47" s="163"/>
       <c r="L47" s="163"/>
       <c r="M47" s="163"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20">
       <c r="A48" s="163"/>
       <c r="B48" s="163"/>
       <c r="C48" s="163"/>
@@ -20912,7 +20852,7 @@
       <c r="G48" s="163"/>
       <c r="H48" s="163"/>
       <c r="I48" s="163"/>
-      <c r="J48" s="348"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="163"/>
       <c r="L48" s="163"/>
       <c r="M48" s="163"/>
@@ -20939,10 +20879,10 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
@@ -20964,64 +20904,64 @@
     <col min="24" max="26" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E2" s="309" t="s">
+    <row r="2" spans="1:24">
+      <c r="E2" s="300" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
       <c r="X2" s="137"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="289" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="290"/>
+      <c r="B3" s="293"/>
       <c r="C3" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311" t="s">
+      <c r="F3" s="303"/>
+      <c r="G3" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311" t="s">
+      <c r="H3" s="303"/>
+      <c r="I3" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="311"/>
-      <c r="K3" s="314" t="s">
+      <c r="J3" s="303"/>
+      <c r="K3" s="307" t="s">
         <v>293</v>
       </c>
-      <c r="L3" s="315"/>
-      <c r="M3" s="316"/>
+      <c r="L3" s="308"/>
+      <c r="M3" s="309"/>
       <c r="N3" s="150"/>
-      <c r="O3" s="311" t="s">
+      <c r="O3" s="303" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="312"/>
-      <c r="R3" s="310" t="s">
+      <c r="P3" s="304"/>
+      <c r="R3" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="310"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="304"/>
-      <c r="W3" s="304"/>
+      <c r="S3" s="301"/>
+      <c r="T3" s="302"/>
+      <c r="U3" s="302"/>
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
       <c r="X3" s="137"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -21071,13 +21011,13 @@
         <v>53</v>
       </c>
       <c r="S4" s="305"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="302"/>
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
       <c r="X4" s="137"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -21124,17 +21064,17 @@
       <c r="P5" s="61" t="s">
         <v>573</v>
       </c>
-      <c r="R5" s="310" t="s">
+      <c r="R5" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="310"/>
-      <c r="T5" s="304"/>
-      <c r="U5" s="304"/>
-      <c r="V5" s="304"/>
-      <c r="W5" s="304"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="302"/>
+      <c r="U5" s="302"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
       <c r="X5" s="137"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -21185,16 +21125,16 @@
         <v>71</v>
       </c>
       <c r="S6" s="305"/>
-      <c r="T6" s="304" t="str">
+      <c r="T6" s="302" t="str">
         <f>S3048_FW</f>
         <v>fw: 9.11</v>
       </c>
-      <c r="U6" s="304"/>
-      <c r="V6" s="304"/>
-      <c r="W6" s="304"/>
+      <c r="U6" s="302"/>
+      <c r="V6" s="302"/>
+      <c r="W6" s="302"/>
       <c r="X6" s="137"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -21243,7 +21183,7 @@
       </c>
       <c r="X7" s="137"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -21290,19 +21230,19 @@
       <c r="P8" s="61" t="s">
         <v>573</v>
       </c>
-      <c r="R8" s="302" t="s">
+      <c r="R8" s="313" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="302"/>
-      <c r="T8" s="302"/>
-      <c r="U8" s="303" t="s">
+      <c r="S8" s="313"/>
+      <c r="T8" s="313"/>
+      <c r="U8" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
+      <c r="V8" s="314"/>
+      <c r="W8" s="314"/>
       <c r="X8" s="137"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -21334,17 +21274,17 @@
       <c r="P9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="306" t="s">
+      <c r="R9" s="315" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="304"/>
-      <c r="V9" s="304"/>
-      <c r="W9" s="304"/>
+      <c r="S9" s="315"/>
+      <c r="T9" s="315"/>
+      <c r="U9" s="302"/>
+      <c r="V9" s="302"/>
+      <c r="W9" s="302"/>
       <c r="X9" s="137"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -21376,19 +21316,19 @@
       <c r="P10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="307" t="s">
+      <c r="R10" s="316" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="307"/>
-      <c r="T10" s="307"/>
-      <c r="U10" s="304">
+      <c r="S10" s="316"/>
+      <c r="T10" s="316"/>
+      <c r="U10" s="302">
         <v>24576</v>
       </c>
-      <c r="V10" s="304"/>
-      <c r="W10" s="304"/>
+      <c r="V10" s="302"/>
+      <c r="W10" s="302"/>
       <c r="X10" s="137"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -21422,7 +21362,7 @@
       </c>
       <c r="X11" s="137"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -21454,19 +21394,19 @@
       <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="302" t="s">
+      <c r="R12" s="313" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="302"/>
-      <c r="T12" s="302"/>
-      <c r="U12" s="303" t="s">
+      <c r="S12" s="313"/>
+      <c r="T12" s="313"/>
+      <c r="U12" s="314" t="s">
         <v>285</v>
       </c>
-      <c r="V12" s="303"/>
-      <c r="W12" s="303"/>
+      <c r="V12" s="314"/>
+      <c r="W12" s="314"/>
       <c r="X12" s="137"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -21499,11 +21439,11 @@
       </c>
       <c r="X13" s="137"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="313" t="s">
+    <row r="14" spans="1:24">
+      <c r="A14" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="312"/>
+      <c r="B14" s="304"/>
       <c r="C14" s="34"/>
       <c r="E14" s="36" t="s">
         <v>322</v>
@@ -21525,17 +21465,17 @@
       <c r="P14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="317" t="s">
+      <c r="R14" s="310" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="318"/>
-      <c r="T14" s="318"/>
-      <c r="U14" s="318"/>
-      <c r="V14" s="318"/>
-      <c r="W14" s="319"/>
+      <c r="S14" s="311"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="311"/>
+      <c r="V14" s="311"/>
+      <c r="W14" s="312"/>
       <c r="X14" s="137"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24">
       <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
@@ -21565,15 +21505,15 @@
       <c r="P15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="296"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="297"/>
-      <c r="U15" s="297"/>
-      <c r="V15" s="297"/>
-      <c r="W15" s="298"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="318"/>
+      <c r="T15" s="318"/>
+      <c r="U15" s="318"/>
+      <c r="V15" s="318"/>
+      <c r="W15" s="319"/>
       <c r="X15" s="137"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24">
       <c r="A16" s="39" t="s">
         <v>366</v>
       </c>
@@ -21601,15 +21541,15 @@
       <c r="P16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="299"/>
-      <c r="S16" s="300"/>
-      <c r="T16" s="300"/>
-      <c r="U16" s="300"/>
-      <c r="V16" s="300"/>
-      <c r="W16" s="301"/>
+      <c r="R16" s="320"/>
+      <c r="S16" s="321"/>
+      <c r="T16" s="321"/>
+      <c r="U16" s="321"/>
+      <c r="V16" s="321"/>
+      <c r="W16" s="322"/>
       <c r="X16" s="137"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24">
       <c r="A17" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -21638,15 +21578,15 @@
       <c r="P17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="296"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="297"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="298"/>
+      <c r="R17" s="317"/>
+      <c r="S17" s="318"/>
+      <c r="T17" s="318"/>
+      <c r="U17" s="318"/>
+      <c r="V17" s="318"/>
+      <c r="W17" s="319"/>
       <c r="X17" s="137"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24">
       <c r="A18" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -21675,15 +21615,15 @@
       <c r="P18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="299"/>
-      <c r="S18" s="300"/>
-      <c r="T18" s="300"/>
-      <c r="U18" s="300"/>
-      <c r="V18" s="300"/>
-      <c r="W18" s="301"/>
+      <c r="R18" s="320"/>
+      <c r="S18" s="321"/>
+      <c r="T18" s="321"/>
+      <c r="U18" s="321"/>
+      <c r="V18" s="321"/>
+      <c r="W18" s="322"/>
       <c r="X18" s="137"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24">
       <c r="A19" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -21714,7 +21654,7 @@
       </c>
       <c r="X19" s="137"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24">
       <c r="A20" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -21744,7 +21684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24">
       <c r="A21" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -21774,7 +21714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24">
       <c r="A22" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -21804,7 +21744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24">
       <c r="A23" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -21834,7 +21774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24">
       <c r="E24" s="36" t="s">
         <v>332</v>
       </c>
@@ -21856,11 +21796,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="289" t="s">
+    <row r="25" spans="1:24">
+      <c r="A25" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="290"/>
+      <c r="B25" s="293"/>
       <c r="C25" s="34"/>
       <c r="E25" s="36" t="s">
         <v>333</v>
@@ -21883,7 +21823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24">
       <c r="A26" s="39" t="s">
         <v>49</v>
       </c>
@@ -21914,7 +21854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24">
       <c r="A27" s="39" t="s">
         <v>66</v>
       </c>
@@ -21941,7 +21881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -21966,7 +21906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -21991,7 +21931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24">
       <c r="E30" s="36" t="s">
         <v>338</v>
       </c>
@@ -22013,12 +21953,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="308" t="s">
+    <row r="31" spans="1:24">
+      <c r="A31" s="299" t="s">
         <v>392</v>
       </c>
-      <c r="B31" s="308"/>
-      <c r="C31" s="308"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
       <c r="E31" s="36" t="s">
         <v>339</v>
       </c>
@@ -22040,10 +21980,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="308"/>
-      <c r="B32" s="308"/>
-      <c r="C32" s="308"/>
+    <row r="32" spans="1:24">
+      <c r="A32" s="299"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
       <c r="E32" s="36" t="s">
         <v>340</v>
       </c>
@@ -22065,10 +22005,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="308"/>
-      <c r="B33" s="308"/>
-      <c r="C33" s="308"/>
+    <row r="33" spans="1:16" ht="14.5" customHeight="1">
+      <c r="A33" s="299"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
       <c r="E33" s="36" t="s">
         <v>341</v>
       </c>
@@ -22090,7 +22030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="E34" s="36" t="s">
         <v>342</v>
       </c>
@@ -22112,7 +22052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="E35" s="36" t="s">
         <v>343</v>
       </c>
@@ -22134,7 +22074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.5" customHeight="1">
       <c r="E36" s="36" t="s">
         <v>344</v>
       </c>
@@ -22156,7 +22096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="E37" s="36" t="s">
         <v>345</v>
       </c>
@@ -22178,7 +22118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="E38" s="36" t="s">
         <v>346</v>
       </c>
@@ -22200,7 +22140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="E39" s="36" t="s">
         <v>347</v>
       </c>
@@ -22222,7 +22162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="E40" s="36" t="s">
         <v>348</v>
       </c>
@@ -22244,7 +22184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="E41" s="36" t="s">
         <v>349</v>
       </c>
@@ -22266,7 +22206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="E42" s="36" t="s">
         <v>350</v>
       </c>
@@ -22288,7 +22228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="E43" s="36" t="s">
         <v>351</v>
       </c>
@@ -22310,7 +22250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="E44" s="36" t="s">
         <v>352</v>
       </c>
@@ -22346,7 +22286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="E45" s="36" t="s">
         <v>353</v>
       </c>
@@ -22382,7 +22322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="E46" s="36" t="s">
         <v>354</v>
       </c>
@@ -22402,7 +22342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="E47" s="36" t="s">
         <v>355</v>
       </c>
@@ -22422,7 +22362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="E48" s="36" t="s">
         <v>356</v>
       </c>
@@ -22442,7 +22382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:16">
       <c r="E49" s="36" t="s">
         <v>357</v>
       </c>
@@ -22462,7 +22402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:16">
       <c r="E50" s="36" t="s">
         <v>358</v>
       </c>
@@ -22482,7 +22422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:16">
       <c r="E51" s="36" t="s">
         <v>359</v>
       </c>
@@ -22517,7 +22457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:16">
       <c r="E52" s="36" t="s">
         <v>360</v>
       </c>
@@ -22552,7 +22492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:16">
       <c r="E53" s="54" t="s">
         <v>361</v>
       </c>
@@ -22576,7 +22516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:16">
       <c r="E54" s="54" t="s">
         <v>364</v>
       </c>
@@ -22600,7 +22540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:16">
       <c r="E55" s="54" t="s">
         <v>362</v>
       </c>
@@ -22637,7 +22577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:16">
       <c r="E56" s="54" t="s">
         <v>363</v>
       </c>
@@ -22674,7 +22614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:16">
       <c r="E57" s="54" t="s">
         <v>366</v>
       </c>
@@ -22708,6 +22648,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A31:C33"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="R5:S5"/>
@@ -22724,21 +22679,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:W14"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F43 F46:F48">
     <cfRule type="expression" dxfId="88" priority="7" stopIfTrue="1">
@@ -22789,10 +22729,10 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.7265625" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="39" bestFit="1" customWidth="1"/>
@@ -22821,57 +22761,57 @@
     <col min="31" max="32" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E1" s="309" t="s">
+    <row r="1" spans="1:26">
+      <c r="E1" s="300" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="309"/>
-      <c r="P1" s="309"/>
-      <c r="Q1" s="309"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="313" t="s">
+      <c r="E2" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311" t="s">
+      <c r="F2" s="303"/>
+      <c r="G2" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311" t="s">
+      <c r="H2" s="303"/>
+      <c r="I2" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="311"/>
+      <c r="J2" s="303"/>
       <c r="K2" s="151"/>
-      <c r="L2" s="314" t="s">
+      <c r="L2" s="307" t="s">
         <v>293</v>
       </c>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="311" t="s">
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="303" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="312"/>
+      <c r="Q2" s="304"/>
       <c r="Z2" s="137"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="289" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="290"/>
+      <c r="B3" s="293"/>
       <c r="C3" s="34" t="s">
         <v>220</v>
       </c>
@@ -22914,17 +22854,17 @@
       <c r="Q3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="310" t="s">
+      <c r="T3" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="310"/>
-      <c r="V3" s="304"/>
-      <c r="W3" s="304"/>
-      <c r="X3" s="304"/>
-      <c r="Y3" s="304"/>
+      <c r="U3" s="301"/>
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
+      <c r="X3" s="302"/>
+      <c r="Y3" s="302"/>
       <c r="Z3" s="139"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -22978,13 +22918,13 @@
         <v>53</v>
       </c>
       <c r="U4" s="305"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
       <c r="Z4" s="139"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -23009,7 +22949,7 @@
         <v>491</v>
       </c>
       <c r="I5" s="38">
-        <f>Provisioner</f>
+        <f t="shared" ref="I5:I13" si="0">Provisioner</f>
         <v>120</v>
       </c>
       <c r="J5" s="61" t="str">
@@ -23037,17 +22977,17 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="310" t="s">
+      <c r="T5" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="310"/>
-      <c r="V5" s="304"/>
-      <c r="W5" s="304"/>
-      <c r="X5" s="304"/>
-      <c r="Y5" s="304"/>
+      <c r="U5" s="301"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
       <c r="Z5" s="139"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -23072,7 +23012,7 @@
         <v>491</v>
       </c>
       <c r="I6" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J6" s="61" t="str">
@@ -23104,16 +23044,16 @@
         <v>71</v>
       </c>
       <c r="U6" s="305"/>
-      <c r="V6" s="304" t="str">
+      <c r="V6" s="302" t="str">
         <f>S4048_1_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="W6" s="304"/>
-      <c r="X6" s="304"/>
-      <c r="Y6" s="304"/>
+      <c r="W6" s="302"/>
+      <c r="X6" s="302"/>
+      <c r="Y6" s="302"/>
       <c r="Z6" s="139"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -23138,7 +23078,7 @@
         <v>491</v>
       </c>
       <c r="I7" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J7" s="61" t="str">
@@ -23168,7 +23108,7 @@
       </c>
       <c r="Z7" s="137"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -23193,11 +23133,11 @@
         <v>491</v>
       </c>
       <c r="I8" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J8" s="128" t="str">
-        <f t="shared" ref="J8:J13" si="0">CONCATENATE(TenTunnel,",",PrivAPI,",",TenantBeg,"-",TenantEnd)</f>
+        <f t="shared" ref="J8:J13" si="1">CONCATENATE(TenTunnel,",",PrivAPI,",",TenantBeg,"-",TenantEnd)</f>
         <v>130,140,201-250</v>
       </c>
       <c r="K8" s="130" t="s">
@@ -23221,19 +23161,19 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="302" t="s">
+      <c r="T8" s="313" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="302"/>
-      <c r="V8" s="302"/>
-      <c r="W8" s="303" t="s">
+      <c r="U8" s="313"/>
+      <c r="V8" s="313"/>
+      <c r="W8" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
+      <c r="X8" s="314"/>
+      <c r="Y8" s="314"/>
       <c r="Z8" s="139"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -23258,11 +23198,11 @@
         <v>491</v>
       </c>
       <c r="I9" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J9" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K9" s="130" t="s">
@@ -23286,17 +23226,17 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="306" t="s">
+      <c r="T9" s="315" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="304"/>
-      <c r="X9" s="304"/>
-      <c r="Y9" s="304"/>
+      <c r="U9" s="315"/>
+      <c r="V9" s="315"/>
+      <c r="W9" s="302"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="302"/>
       <c r="Z9" s="139"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -23321,11 +23261,11 @@
         <v>491</v>
       </c>
       <c r="I10" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J10" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K10" s="130" t="s">
@@ -23349,19 +23289,19 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="307" t="s">
+      <c r="T10" s="316" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="307"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="304">
+      <c r="U10" s="316"/>
+      <c r="V10" s="316"/>
+      <c r="W10" s="302">
         <v>16384</v>
       </c>
-      <c r="X10" s="304"/>
-      <c r="Y10" s="304"/>
+      <c r="X10" s="302"/>
+      <c r="Y10" s="302"/>
       <c r="Z10" s="139"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -23386,11 +23326,11 @@
         <v>491</v>
       </c>
       <c r="I11" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J11" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K11" s="130" t="s">
@@ -23416,7 +23356,7 @@
       </c>
       <c r="Z11" s="137"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -23441,11 +23381,11 @@
         <v>491</v>
       </c>
       <c r="I12" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J12" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K12" s="130" t="s">
@@ -23469,17 +23409,17 @@
       <c r="Q12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="321" t="s">
+      <c r="T12" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="322"/>
-      <c r="V12" s="323"/>
-      <c r="W12" s="324"/>
-      <c r="X12" s="325"/>
-      <c r="Y12" s="326"/>
+      <c r="U12" s="330"/>
+      <c r="V12" s="331"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="333"/>
+      <c r="Y12" s="334"/>
       <c r="Z12" s="139"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -23503,11 +23443,11 @@
         <v>491</v>
       </c>
       <c r="I13" s="38">
-        <f>Provisioner</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="J13" s="128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130,140,201-250</v>
       </c>
       <c r="K13" s="130" t="s">
@@ -23531,19 +23471,19 @@
       <c r="Q13" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="327" t="s">
+      <c r="T13" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="328"/>
-      <c r="V13" s="329"/>
-      <c r="W13" s="330">
+      <c r="U13" s="327"/>
+      <c r="V13" s="328"/>
+      <c r="W13" s="323">
         <v>1</v>
       </c>
-      <c r="X13" s="331"/>
-      <c r="Y13" s="332"/>
+      <c r="X13" s="324"/>
+      <c r="Y13" s="325"/>
       <c r="Z13" s="139"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26">
       <c r="A14" s="137"/>
       <c r="B14" s="137"/>
       <c r="C14" s="36"/>
@@ -23566,23 +23506,23 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="T14" s="327" t="s">
+      <c r="T14" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="328"/>
-      <c r="V14" s="329"/>
-      <c r="W14" s="324">
+      <c r="U14" s="327"/>
+      <c r="V14" s="328"/>
+      <c r="W14" s="332">
         <v>1</v>
       </c>
-      <c r="X14" s="325"/>
-      <c r="Y14" s="326"/>
+      <c r="X14" s="333"/>
+      <c r="Y14" s="334"/>
       <c r="Z14" s="139"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="313" t="s">
+    <row r="15" spans="1:26">
+      <c r="A15" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="312"/>
+      <c r="B15" s="304"/>
       <c r="C15" s="36"/>
       <c r="E15" s="36" t="s">
         <v>237</v>
@@ -23625,19 +23565,19 @@
       <c r="Q15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="321" t="s">
+      <c r="T15" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="322"/>
-      <c r="V15" s="323"/>
-      <c r="W15" s="324">
+      <c r="U15" s="330"/>
+      <c r="V15" s="331"/>
+      <c r="W15" s="332">
         <v>0</v>
       </c>
-      <c r="X15" s="325"/>
-      <c r="Y15" s="326"/>
+      <c r="X15" s="333"/>
+      <c r="Y15" s="334"/>
       <c r="Z15" s="139"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26">
       <c r="A16" s="39" t="s">
         <v>36</v>
       </c>
@@ -23687,14 +23627,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25">
       <c r="A17" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="180" t="str">
-        <f>S4048_1_OOB_IP</f>
-        <v>100.68.180.4</v>
-      </c>
+      <c r="B17" s="180"/>
       <c r="C17" s="36"/>
       <c r="E17" s="36" t="s">
         <v>239</v>
@@ -23737,16 +23674,16 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="317" t="s">
+      <c r="T17" s="310" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="318"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="318"/>
-      <c r="X17" s="318"/>
-      <c r="Y17" s="319"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
+      <c r="W17" s="311"/>
+      <c r="X17" s="311"/>
+      <c r="Y17" s="312"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -23776,14 +23713,14 @@
       <c r="Q18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="296"/>
-      <c r="U18" s="297"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="297"/>
-      <c r="X18" s="297"/>
-      <c r="Y18" s="298"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T18" s="317"/>
+      <c r="U18" s="318"/>
+      <c r="V18" s="318"/>
+      <c r="W18" s="318"/>
+      <c r="X18" s="318"/>
+      <c r="Y18" s="319"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -23813,14 +23750,14 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="299"/>
-      <c r="U19" s="300"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="300"/>
-      <c r="X19" s="300"/>
-      <c r="Y19" s="301"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T19" s="320"/>
+      <c r="U19" s="321"/>
+      <c r="V19" s="321"/>
+      <c r="W19" s="321"/>
+      <c r="X19" s="321"/>
+      <c r="Y19" s="322"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -23847,14 +23784,14 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="296"/>
-      <c r="U20" s="297"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="297"/>
-      <c r="X20" s="297"/>
-      <c r="Y20" s="298"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T20" s="317"/>
+      <c r="U20" s="318"/>
+      <c r="V20" s="318"/>
+      <c r="W20" s="318"/>
+      <c r="X20" s="318"/>
+      <c r="Y20" s="319"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -23881,14 +23818,14 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="299"/>
-      <c r="U21" s="300"/>
-      <c r="V21" s="300"/>
-      <c r="W21" s="300"/>
-      <c r="X21" s="300"/>
-      <c r="Y21" s="301"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T21" s="320"/>
+      <c r="U21" s="321"/>
+      <c r="V21" s="321"/>
+      <c r="W21" s="321"/>
+      <c r="X21" s="321"/>
+      <c r="Y21" s="322"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -23916,7 +23853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25">
       <c r="A23" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -23944,7 +23881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25">
       <c r="A24" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -23972,7 +23909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="36"/>
@@ -23998,11 +23935,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="320" t="s">
+    <row r="26" spans="1:25">
+      <c r="A26" s="335" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="320"/>
+      <c r="B26" s="335"/>
       <c r="C26" s="36"/>
       <c r="E26" s="36" t="s">
         <v>248</v>
@@ -24026,9 +23963,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="320"/>
-      <c r="B27" s="320"/>
+    <row r="27" spans="1:25">
+      <c r="A27" s="335"/>
+      <c r="B27" s="335"/>
       <c r="C27" s="36"/>
       <c r="E27" s="36" t="s">
         <v>249</v>
@@ -24052,11 +23989,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="289" t="s">
+    <row r="28" spans="1:25">
+      <c r="A28" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="290"/>
+      <c r="B28" s="293"/>
       <c r="C28" s="36"/>
       <c r="E28" s="36" t="s">
         <v>250</v>
@@ -24099,7 +24036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25">
       <c r="A29" s="39" t="s">
         <v>49</v>
       </c>
@@ -24148,7 +24085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25">
       <c r="A30" s="39" t="s">
         <v>66</v>
       </c>
@@ -24194,7 +24131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25">
       <c r="C31" s="137"/>
       <c r="E31" s="36" t="s">
         <v>253</v>
@@ -24237,7 +24174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25">
       <c r="C32" s="137"/>
       <c r="E32" s="36" t="s">
         <v>254</v>
@@ -24255,7 +24192,7 @@
         <v>38</v>
       </c>
       <c r="J32" s="127">
-        <f t="shared" ref="J32:J37" si="1">Storage</f>
+        <f t="shared" ref="J32:J37" si="2">Storage</f>
         <v>170</v>
       </c>
       <c r="K32" s="61" t="s">
@@ -24280,10 +24217,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="308"/>
-      <c r="B33" s="308"/>
-      <c r="C33" s="308"/>
+    <row r="33" spans="1:17">
+      <c r="A33" s="299"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
       <c r="E33" s="36" t="s">
         <v>255</v>
       </c>
@@ -24300,7 +24237,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K33" s="61" t="s">
@@ -24325,10 +24262,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="308"/>
-      <c r="B34" s="308"/>
-      <c r="C34" s="308"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="299"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
       <c r="E34" s="36" t="s">
         <v>256</v>
       </c>
@@ -24345,7 +24282,7 @@
         <v>38</v>
       </c>
       <c r="J34" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K34" s="61" t="s">
@@ -24370,10 +24307,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="308"/>
-      <c r="B35" s="308"/>
-      <c r="C35" s="308"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="299"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="299"/>
       <c r="E35" s="36" t="s">
         <v>257</v>
       </c>
@@ -24390,7 +24327,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K35" s="61" t="s">
@@ -24415,7 +24352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17">
       <c r="A36"/>
       <c r="B36"/>
       <c r="E36" s="36" t="s">
@@ -24434,7 +24371,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K36" s="61" t="s">
@@ -24459,7 +24396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17">
       <c r="A37"/>
       <c r="B37"/>
       <c r="E37" s="36" t="s">
@@ -24478,7 +24415,7 @@
         <v>38</v>
       </c>
       <c r="J37" s="127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K37" s="61" t="s">
@@ -24503,7 +24440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17">
       <c r="E38" s="36" t="s">
         <v>260</v>
       </c>
@@ -24524,7 +24461,7 @@
       <c r="P38" s="48"/>
       <c r="Q38" s="61"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17">
       <c r="E39" s="36" t="s">
         <v>261</v>
       </c>
@@ -24566,7 +24503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17">
       <c r="E40" s="36" t="s">
         <v>262</v>
       </c>
@@ -24608,7 +24545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="E41" s="36" t="s">
         <v>263</v>
       </c>
@@ -24650,7 +24587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="E42" s="36" t="s">
         <v>264</v>
       </c>
@@ -24669,7 +24606,7 @@
       <c r="P42" s="48"/>
       <c r="Q42" s="61"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="E43" s="36" t="s">
         <v>265</v>
       </c>
@@ -24690,7 +24627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="E44" s="36" t="s">
         <v>266</v>
       </c>
@@ -24731,7 +24668,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="E45" s="36" t="s">
         <v>267</v>
       </c>
@@ -24772,7 +24709,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="E46" s="36" t="s">
         <v>268</v>
       </c>
@@ -24795,7 +24732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="E47" s="36" t="s">
         <v>269</v>
       </c>
@@ -24818,7 +24755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="E48" s="36" t="s">
         <v>270</v>
       </c>
@@ -24841,7 +24778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:17">
       <c r="E49" s="36" t="s">
         <v>271</v>
       </c>
@@ -24864,7 +24801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:17">
       <c r="E50" s="36" t="s">
         <v>272</v>
       </c>
@@ -24902,7 +24839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:17">
       <c r="E51" s="36" t="s">
         <v>273</v>
       </c>
@@ -24940,7 +24877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:17">
       <c r="E52" s="54" t="s">
         <v>274</v>
       </c>
@@ -24977,7 +24914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:17">
       <c r="E53" s="54" t="s">
         <v>275</v>
       </c>
@@ -25014,7 +24951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:17">
       <c r="E54" s="54" t="s">
         <v>276</v>
       </c>
@@ -25052,7 +24989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:17">
       <c r="E55" s="54" t="s">
         <v>68</v>
       </c>
@@ -25073,7 +25010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:17">
       <c r="E56" s="54" t="s">
         <v>277</v>
       </c>
@@ -25094,7 +25031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:17">
       <c r="E57" s="54" t="s">
         <v>278</v>
       </c>
@@ -25111,7 +25048,7 @@
       <c r="P57" s="127"/>
       <c r="Q57" s="127"/>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:17">
       <c r="E58" s="54" t="s">
         <v>366</v>
       </c>
@@ -25142,6 +25079,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V6:Y6"/>
     <mergeCell ref="A33:C35"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="T21:Y21"/>
@@ -25158,28 +25117,6 @@
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:F53">
     <cfRule type="expression" dxfId="53" priority="2" stopIfTrue="1">
@@ -25209,6 +25146,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001185193EED7D7C45B2181268987EEB31" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0398fff93780d69aa75df20e85be37f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e0dd24fae28f1b5dd5f79afbe3cfeb">
     <xsd:element name="properties">
@@ -25322,22 +25274,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5245AC5-DF56-430A-AECE-726FB05E2AD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25351,27 +25311,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>